--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N2">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q2">
-        <v>4.826545490990734</v>
+        <v>6.653090074910222</v>
       </c>
       <c r="R2">
-        <v>4.826545490990734</v>
+        <v>59.877810674192</v>
       </c>
       <c r="S2">
-        <v>0.004076746933445913</v>
+        <v>0.004583706449262789</v>
       </c>
       <c r="T2">
-        <v>0.004076746933445913</v>
+        <v>0.004583706449262788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N3">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q3">
-        <v>41.36990655968886</v>
+        <v>49.04894546040111</v>
       </c>
       <c r="R3">
-        <v>41.36990655968886</v>
+        <v>441.44050914361</v>
       </c>
       <c r="S3">
-        <v>0.03494313687065989</v>
+        <v>0.03379271362704542</v>
       </c>
       <c r="T3">
-        <v>0.03494313687065989</v>
+        <v>0.03379271362704542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N4">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q4">
-        <v>99.1454827596734</v>
+        <v>120.4463873557273</v>
       </c>
       <c r="R4">
-        <v>99.1454827596734</v>
+        <v>1084.017486201546</v>
       </c>
       <c r="S4">
-        <v>0.08374334056520948</v>
+        <v>0.08298262556144655</v>
       </c>
       <c r="T4">
-        <v>0.08374334056520948</v>
+        <v>0.08298262556144655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N5">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q5">
-        <v>22.45754165857557</v>
+        <v>27.70393699737689</v>
       </c>
       <c r="R5">
-        <v>22.45754165857557</v>
+        <v>249.335432976392</v>
       </c>
       <c r="S5">
-        <v>0.018968787150194</v>
+        <v>0.01908687741411047</v>
       </c>
       <c r="T5">
-        <v>0.018968787150194</v>
+        <v>0.01908687741411047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N6">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q6">
-        <v>192.4909651654157</v>
+        <v>204.2432733546095</v>
       </c>
       <c r="R6">
-        <v>192.4909651654157</v>
+        <v>1838.189460191485</v>
       </c>
       <c r="S6">
-        <v>0.1625877044811757</v>
+        <v>0.140715246412277</v>
       </c>
       <c r="T6">
-        <v>0.1625877044811757</v>
+        <v>0.140715246412277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N7">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q7">
-        <v>461.3162381854833</v>
+        <v>501.5472643980024</v>
       </c>
       <c r="R7">
-        <v>461.3162381854833</v>
+        <v>4513.925379582021</v>
       </c>
       <c r="S7">
-        <v>0.3896512656685708</v>
+        <v>0.3455455141214596</v>
       </c>
       <c r="T7">
-        <v>0.3896512656685708</v>
+        <v>0.3455455141214596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H8">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N8">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q8">
-        <v>12.03180338513303</v>
+        <v>20.46451540069067</v>
       </c>
       <c r="R8">
-        <v>12.03180338513303</v>
+        <v>184.180638606216</v>
       </c>
       <c r="S8">
-        <v>0.01016267590261472</v>
+        <v>0.01409921257145302</v>
       </c>
       <c r="T8">
-        <v>0.01016267590261472</v>
+        <v>0.01409921257145301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H9">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N9">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q9">
-        <v>103.1285383545259</v>
+        <v>150.8716834523783</v>
       </c>
       <c r="R9">
-        <v>103.1285383545259</v>
+        <v>1357.845151071405</v>
       </c>
       <c r="S9">
-        <v>0.08710763283436332</v>
+        <v>0.1039444078864561</v>
       </c>
       <c r="T9">
-        <v>0.08710763283436332</v>
+        <v>0.103944407886456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H10">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N10">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q10">
-        <v>247.1537784767929</v>
+        <v>370.486032993037</v>
       </c>
       <c r="R10">
-        <v>247.1537784767929</v>
+        <v>3334.374296937333</v>
       </c>
       <c r="S10">
-        <v>0.2087587095937661</v>
+        <v>0.2552496959564892</v>
       </c>
       <c r="T10">
-        <v>0.2087587095937661</v>
+        <v>0.2552496959564892</v>
       </c>
     </row>
   </sheetData>
